--- a/Assets/StreamingAssets/TrendsReactions.xlsx
+++ b/Assets/StreamingAssets/TrendsReactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F6F2E-E317-438A-9E49-C53AC226F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CE714-CD78-477D-8AE0-D45EB478B3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{F23A8C1E-DDE8-468B-ACFA-3326D029ABBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F23A8C1E-DDE8-468B-ACFA-3326D029ABBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="432">
   <si>
     <t>Asshole</t>
   </si>
@@ -676,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Third part quality control organizations investigate the case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#The report showned that there was nothing wrong with the brake, and the driver was making false claims</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,6 +805,632 @@
   </si>
   <si>
     <t xml:space="preserve">#An electric car accident occurred, the driver claimed that the brake was not working </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,5,5</t>
+  </si>
+  <si>
+    <t>-5,-5,5</t>
+  </si>
+  <si>
+    <t>5,-15,-5</t>
+  </si>
+  <si>
+    <t>-5,0,0</t>
+  </si>
+  <si>
+    <t>0,-5,-5</t>
+  </si>
+  <si>
+    <t>-5,0,5</t>
+  </si>
+  <si>
+    <t>15,10,5</t>
+  </si>
+  <si>
+    <t>-10,10,5</t>
+  </si>
+  <si>
+    <t>-10,5,5</t>
+  </si>
+  <si>
+    <t>10,10,5</t>
+  </si>
+  <si>
+    <t>10,5,5</t>
+  </si>
+  <si>
+    <t>5,5,0</t>
+  </si>
+  <si>
+    <t>10,5,0</t>
+  </si>
+  <si>
+    <t>-10,5,0</t>
+  </si>
+  <si>
+    <t>-5,5,0</t>
+  </si>
+  <si>
+    <t>#Third party quality control organizations investigate the case</t>
+  </si>
+  <si>
+    <t>5,0,0</t>
+  </si>
+  <si>
+    <t>5,5,5</t>
+  </si>
+  <si>
+    <t>10,-5,-5</t>
+  </si>
+  <si>
+    <t>-5,-5,0</t>
+  </si>
+  <si>
+    <t>-10,-10,-5</t>
+  </si>
+  <si>
+    <t>-10,-10,-10</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>-5,-5,-5</t>
+  </si>
+  <si>
+    <t>5,5,10</t>
+  </si>
+  <si>
+    <t>-15,10,0</t>
+  </si>
+  <si>
+    <t>-10,-15,-10</t>
+  </si>
+  <si>
+    <t>#2099-U.S. News university ranking published, some college rankings changed dramatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Some schools send out letters to students claiming their education quality remain the same and no need to worry </t>
+  </si>
+  <si>
+    <t>#Experts and some school officials criticize the the new ranking is not accurate and misleading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#U.S. News claimed that it had calculated rankings of 200 universities incorrectly </t>
+  </si>
+  <si>
+    <t>#Panda Yaya was reported abused in Mehis Zoo</t>
+  </si>
+  <si>
+    <t>#Netizens criticized the zoo for the not taking care well of the panda</t>
+  </si>
+  <si>
+    <t>#The Zoo claimed that there are no abusement toward the panda</t>
+  </si>
+  <si>
+    <t>#The home country of Yaya announced it will take Yaya back</t>
+  </si>
+  <si>
+    <t>#U.S Police reported that a former software engineer at apple had escaped U.S. avoiding arrest</t>
+  </si>
+  <si>
+    <t>#it was reported that software engineer returned to home country immediately after causing a  car accident, avoiding arrest</t>
+  </si>
+  <si>
+    <t>#Software engineer's flight had landed at his home country</t>
+  </si>
+  <si>
+    <t>#U.S police made an announcement that hopes the suspect to return to U.S. for trial</t>
+  </si>
+  <si>
+    <t>10,0,5</t>
+  </si>
+  <si>
+    <t>Trash rank anyway</t>
+  </si>
+  <si>
+    <t>I'm no longer top 50…</t>
+  </si>
+  <si>
+    <t>refund!</t>
+  </si>
+  <si>
+    <t>Thank you, next</t>
+  </si>
+  <si>
+    <t>trash school indeed</t>
+  </si>
+  <si>
+    <t>bribe to rank up!</t>
+  </si>
+  <si>
+    <t>Refund!</t>
+  </si>
+  <si>
+    <t>My diploma's value decreased</t>
+  </si>
+  <si>
+    <t>Seriously?</t>
+  </si>
+  <si>
+    <t>spend more to bribe!</t>
+  </si>
+  <si>
+    <t>Classic U.S. News move</t>
+  </si>
+  <si>
+    <t>What the…</t>
+  </si>
+  <si>
+    <t>Just like politician</t>
+  </si>
+  <si>
+    <t>What!</t>
+  </si>
+  <si>
+    <t>Fake news</t>
+  </si>
+  <si>
+    <t>U.S. is civilized</t>
+  </si>
+  <si>
+    <t>U.S. is rich</t>
+  </si>
+  <si>
+    <t>Poor Yaya</t>
+  </si>
+  <si>
+    <t>Dumb ass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake news </t>
+  </si>
+  <si>
+    <t>Fu*k the zoo</t>
+  </si>
+  <si>
+    <t>Zoo should be gone</t>
+  </si>
+  <si>
+    <t>the zoo is brok</t>
+  </si>
+  <si>
+    <t>lie!</t>
+  </si>
+  <si>
+    <t>Americans..</t>
+  </si>
+  <si>
+    <t>Let's recue Yaya</t>
+  </si>
+  <si>
+    <t>Better be broke!</t>
+  </si>
+  <si>
+    <t>Screw it!</t>
+  </si>
+  <si>
+    <t>Finally</t>
+  </si>
+  <si>
+    <t>Hurray!</t>
+  </si>
+  <si>
+    <t>No!</t>
+  </si>
+  <si>
+    <t>Where can I see panda again?</t>
+  </si>
+  <si>
+    <t>Screw the zoo!</t>
+  </si>
+  <si>
+    <t>Apple the goat!</t>
+  </si>
+  <si>
+    <t>what?</t>
+  </si>
+  <si>
+    <t>how did she do that?</t>
+  </si>
+  <si>
+    <t>Dumb police</t>
+  </si>
+  <si>
+    <t>Smart!</t>
+  </si>
+  <si>
+    <t>clever!</t>
+  </si>
+  <si>
+    <t>Genius!</t>
+  </si>
+  <si>
+    <t>Criminal!</t>
+  </si>
+  <si>
+    <t>Sleek!</t>
+  </si>
+  <si>
+    <t>So she ran away?</t>
+  </si>
+  <si>
+    <t>How did she do that?</t>
+  </si>
+  <si>
+    <t>Women….</t>
+  </si>
+  <si>
+    <t>trash polic</t>
+  </si>
+  <si>
+    <t>Classic U.S. police</t>
+  </si>
+  <si>
+    <t>That's American Style</t>
+  </si>
+  <si>
+    <t>#The well know band Mayflower was found Lip-synching in conerts</t>
+  </si>
+  <si>
+    <t>#Mayflower claimed he will stream next concert live worldwide</t>
+  </si>
+  <si>
+    <t>#The live concert performance was a diaster</t>
+  </si>
+  <si>
+    <t>Fake news!</t>
+  </si>
+  <si>
+    <t>Not true!</t>
+  </si>
+  <si>
+    <t>Too fake!</t>
+  </si>
+  <si>
+    <t>Poor fans..</t>
+  </si>
+  <si>
+    <t>What a pity</t>
+  </si>
+  <si>
+    <t>Prove it!</t>
+  </si>
+  <si>
+    <t>GoGoGo!</t>
+  </si>
+  <si>
+    <t>Show yourself!</t>
+  </si>
+  <si>
+    <t>Shut the haters up!</t>
+  </si>
+  <si>
+    <t>0,5,-5</t>
+  </si>
+  <si>
+    <t>5,0,20</t>
+  </si>
+  <si>
+    <t>So crap</t>
+  </si>
+  <si>
+    <t>Now he's definitly lip-synching before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm so disappointed </t>
+  </si>
+  <si>
+    <t>#Bitdance claim it will satisfy the order</t>
+  </si>
+  <si>
+    <t>#The president demand Chinese tech company bitdance to sell all its part to US company for national security purposes</t>
+  </si>
+  <si>
+    <t>#Bitdance established partnership with Orable to meet satisfy the requirement</t>
+  </si>
+  <si>
+    <t>Are we bad guys?</t>
+  </si>
+  <si>
+    <t>For god sake, please be reasonable</t>
+  </si>
+  <si>
+    <t>coward</t>
+  </si>
+  <si>
+    <t>joke</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>all we need is money~</t>
+  </si>
+  <si>
+    <t>U.S. take the money</t>
+  </si>
+  <si>
+    <t>lucky orable</t>
+  </si>
+  <si>
+    <t>Smells fishy</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>#Baldur's Window became the game of the year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fame follows merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, poor Celda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequel, quick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My favorite game!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Spend a hundred thousand dollars on lottery tickets and win a million dollars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take makes no sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why someone would like to spend so much on lottery?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Influencer little cow brother spends 10 million to hold a free concert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,-5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Really?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who can send me a ticket?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He made too much money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be an influencer too!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#There will be no holiday on Christmas Eve this year.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,7,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you kidding me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's must a joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A chemistry professor from Colombia University wins the Nonebel Prize.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The best univeristy!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congrat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Elen Musk calls for curbing the development of the artificial intelligence model JPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,5,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPT will treat human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't stop it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#The granddaughter of the former head of the Freight Management Division of the Transportation Bureau flaunts her wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8,8,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corruption 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look into her grandpa!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shame on her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#The domestic economy in the fourth quarter shows stability and improvement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,-10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Believe government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullshift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thx, can you pay my salary?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where's my job?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Showbiz is a shit hole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So that's who he is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Singer Mr. 51 was exposed for seducing a minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to jail!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't believe that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Singer Mr. 51 jumped to his death and stated in his suicide note that he did not rape minors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,-7,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.I.P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are the murderers!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t believe him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cruel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3,-7,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,0,-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,11 +1474,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1171,923 +1797,1655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B052C-7BE4-4E0A-B53E-50E92028346C}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>98</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>102</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>134</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>135</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>137</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>141</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>142</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>146</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>147</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" t="s">
         <v>149</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>150</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>151</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>152</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="B36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F51" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" t="s">
+        <v>312</v>
+      </c>
+      <c r="G56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" t="s">
+        <v>317</v>
+      </c>
+      <c r="G57" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>321</v>
+      </c>
+      <c r="G59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" t="s">
         <v>182</v>
       </c>
-      <c r="C41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" t="s">
-        <v>211</v>
+    </row>
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" t="s">
+        <v>328</v>
+      </c>
+      <c r="E61" t="s">
+        <v>329</v>
+      </c>
+      <c r="F61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" t="s">
+        <v>338</v>
+      </c>
+      <c r="E64" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>349</v>
+      </c>
+      <c r="F66" t="s">
+        <v>350</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70" t="s">
+        <v>357</v>
+      </c>
+      <c r="E70" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
+        <v>360</v>
+      </c>
+      <c r="E71" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" t="s">
+        <v>366</v>
+      </c>
+      <c r="E72" t="s">
+        <v>367</v>
+      </c>
+      <c r="F72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" t="s">
+        <v>381</v>
+      </c>
+      <c r="F74" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" t="s">
+        <v>393</v>
+      </c>
+      <c r="F76" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C78" t="s">
+        <v>403</v>
+      </c>
+      <c r="D78" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C80" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" t="s">
+        <v>416</v>
+      </c>
+      <c r="E80" t="s">
+        <v>413</v>
+      </c>
+      <c r="F80" t="s">
+        <v>414</v>
+      </c>
+      <c r="G80" t="s">
+        <v>417</v>
+      </c>
+      <c r="H80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C81" t="s">
+        <v>424</v>
+      </c>
+      <c r="D81" t="s">
+        <v>425</v>
+      </c>
+      <c r="E81" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/TrendsReactions.xlsx
+++ b/Assets/StreamingAssets/TrendsReactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CE714-CD78-477D-8AE0-D45EB478B3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28FE4F-BF13-468B-8BED-C246F25B581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F23A8C1E-DDE8-468B-ACFA-3326D029ABBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="447">
   <si>
     <t>Asshole</t>
   </si>
@@ -1431,6 +1431,66 @@
   </si>
   <si>
     <t>-5,0,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Famous actress Zhou died of lupus erythematosus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May there be no viruses in heaven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scary desease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is that deasease?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Such a big enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Real estate group HenSmall capital chain breaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope my house there be fine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Iron Valley Bank declares bankruptcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economy crash?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I get my money?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's terrible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1797,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B052C-7BE4-4E0A-B53E-50E92028346C}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3448,6 +3508,60 @@
         <v>427</v>
       </c>
     </row>
+    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" t="s">
+        <v>434</v>
+      </c>
+      <c r="E82" t="s">
+        <v>435</v>
+      </c>
+      <c r="F82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C83" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C84" t="s">
+        <v>444</v>
+      </c>
+      <c r="D84" t="s">
+        <v>445</v>
+      </c>
+      <c r="E84" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,11 +3569,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,26 +3722,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E8F661-566C-4CCD-8F61-DD0B07F00A31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B02BAB-D62C-4DEA-BC2F-CF5367D0B11A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3650,9 +3756,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B02BAB-D62C-4DEA-BC2F-CF5367D0B11A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E8F661-566C-4CCD-8F61-DD0B07F00A31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Assets/StreamingAssets/TrendsReactions.xlsx
+++ b/Assets/StreamingAssets/TrendsReactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28FE4F-BF13-468B-8BED-C246F25B581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69F0D4-84E5-4F8E-8902-316843668DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F23A8C1E-DDE8-468B-ACFA-3326D029ABBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="453">
   <si>
     <t>Asshole</t>
   </si>
@@ -1491,6 +1491,30 @@
   </si>
   <si>
     <t>That's terrible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#Teacher Huang promotes the reform of the national education system </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appreciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She's awesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should be done earlier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1857,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B052C-7BE4-4E0A-B53E-50E92028346C}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3562,6 +3586,26 @@
         <v>446</v>
       </c>
     </row>
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" t="s">
+        <v>451</v>
+      </c>
+      <c r="F85" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3569,12 +3613,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3722,17 +3765,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B02BAB-D62C-4DEA-BC2F-CF5367D0B11A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E8F661-566C-4CCD-8F61-DD0B07F00A31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3756,17 +3808,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E8F661-566C-4CCD-8F61-DD0B07F00A31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B02BAB-D62C-4DEA-BC2F-CF5367D0B11A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>